--- a/GameDesign/Table/TurtleBomb_Script_Table.xlsx
+++ b/GameDesign/Table/TurtleBomb_Script_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송형종\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Turtle_Bomb\GameDesign\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Object_Spawn" sheetId="4" r:id="rId1"/>
@@ -81,23 +81,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭탄 아이템을 획득하면 설치할 수 있는 폭탄의 개수가 늘어 납니다.\n폭탄 아이템은 총 8번까지 능력이 증가하며 이후에는 더 이상 증가히지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스피드 아이템을 획득하면 캐릭터가 움직이는 속도가 증가 합니다.\n스피드 아이템은 총 8번까지 능력이 증가하며 이후에는 더 이상 증가히지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화력 아이템을 획득하면 폭탄이 터지는 범위가 증가 합니다.\n화력 아이템은 총 8번까지 능력이 증가하며 이후에는 더 이상 증가히지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>던지기 아이템을 획득하면 캐릭터 발아래 폭탄이 있을 때 폭탄을 던질 수 있습니다.\n던지기 아이템은 한번 획득한 이후에는 스테이지에서 효과가 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발차기 아이템을 획득하면 캐릭터 앞에 폭탄이 위치하면 앞으로 걷어찰 수 있습니다.\n발차기 아이템은 한번 획득한 이후에는 스테이지에서 효과가 지속됩니다.</t>
+    <t>발차기 아이템을 획득하면 캐릭터 앞에 폭탄이 위치하면 앞으로 걷어찰 수 있습니다.-n-발차기 아이템은 한번 획득한 이후에는 스테이지에서 효과가 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던지기 아이템을 획득하면 캐릭터 발아래 폭탄이 있을 때 폭탄을 던질 수 있습니다.-n-던지기 아이템은 한번 획득한 이후에는 스테이지에서 효과가 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄 아이템을 획득하면 설치할 수 있는 폭탄의 개수가 늘어 납니다.-n-폭탄 아이템은 총 5번까지 능력이 증가하며 이후에는 더 이상 증가히지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드 아이템을 획득하면 캐릭터가 움직이는 속도가 증가 합니다.-n-스피드 아이템은 총 5번까지 능력이 증가하며 이후에는 더 이상 증가히지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화력 아이템을 획득하면 폭탄이 터지는 범위가 증가 합니다.-n-화력 아이템은 총 5번까지 능력이 증가하며 이후에는 더 이상 증가히지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,17 +571,17 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="163" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -592,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -622,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -633,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -644,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -655,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
